--- a/Code/Prosumage_Opt/Dieter_Module/Modified_MCP/data_input.xlsx
+++ b/Code/Prosumage_Opt/Dieter_Module/Modified_MCP/data_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LICENSE" sheetId="2" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">storage!$A$5:$M$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Technologies!$A$5:$U$17</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="413">
   <si>
     <t>This work is licensed under the Creative Commons Attribution-ShareAlike 4.0 International Public License.</t>
   </si>
@@ -503,24 +503,6 @@
     <t>sto1</t>
   </si>
   <si>
-    <t>sto2</t>
-  </si>
-  <si>
-    <t>sto3</t>
-  </si>
-  <si>
-    <t>sto4</t>
-  </si>
-  <si>
-    <t>sto5</t>
-  </si>
-  <si>
-    <t>sto6</t>
-  </si>
-  <si>
-    <t>sto7</t>
-  </si>
-  <si>
     <t>node</t>
   </si>
   <si>
@@ -1287,16 +1269,19 @@
   </si>
   <si>
     <t>https://www.regelleistung.net/ext/tender/</t>
+  </si>
+  <si>
+    <t>Sto1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1555,7 +1540,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1591,7 +1576,7 @@
         <xdr:cNvPr id="2" name="Grafik 1" descr="Creative Commons Lizenzvertrag">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1588,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1623,7 +1608,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1638,9 +1623,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1678,9 +1663,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1712,9 +1697,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,9 +1732,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1921,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B2"/>
   <sheetViews>
@@ -1929,9 +1916,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:AA125"/>
   <sheetViews>
@@ -1951,7 +1938,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="13"/>
     <col min="3" max="6" width="14" style="13" customWidth="1"/>
@@ -1963,7 +1950,7 @@
     <col min="19" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="1" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -1973,213 +1960,213 @@
       <c r="U1" s="13"/>
       <c r="V1" s="13"/>
     </row>
-    <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="2" spans="1:27" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="I2" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="J2" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="K2" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="N2" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="O2" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="P2" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="Q2" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="R2" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="S2" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="U2" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="U4" s="13" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="V4" s="13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="38" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K5" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="R5" s="41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S5" s="38" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="T5" s="38" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="U5" s="38" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="V5" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
@@ -2206,27 +2193,27 @@
       <c r="Y6" s="24"/>
       <c r="AA6" s="24"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H7" s="13">
         <v>2.9000000000000001E-2</v>
@@ -2268,27 +2255,27 @@
       <c r="Y7" s="24"/>
       <c r="AA7" s="24"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H8" s="13">
         <f>0.01/2</f>
@@ -2322,27 +2309,27 @@
       <c r="Y8" s="24"/>
       <c r="AA8" s="24"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H9" s="13">
         <f>0.01/2</f>
@@ -2379,27 +2366,27 @@
       <c r="Y9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H10" s="13">
         <v>0</v>
@@ -2432,27 +2419,27 @@
       <c r="Y10" s="24"/>
       <c r="AA10" s="24"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
@@ -2488,27 +2475,27 @@
       <c r="Y11" s="24"/>
       <c r="AA11" s="24"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H12" s="13">
         <v>0</v>
@@ -2539,27 +2526,27 @@
       <c r="Y12" s="24"/>
       <c r="AA12" s="24"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H13" s="13">
         <v>0</v>
@@ -2590,27 +2577,27 @@
       <c r="Y13" s="24"/>
       <c r="AA13" s="24"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H14" s="13">
         <v>0</v>
@@ -2647,27 +2634,27 @@
       <c r="Y14" s="24"/>
       <c r="AA14" s="24"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H15" s="13">
         <v>0</v>
@@ -2707,27 +2694,27 @@
       <c r="Y15" s="24"/>
       <c r="AA15" s="24"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H16" s="13">
         <v>0</v>
@@ -2752,27 +2739,27 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H17" s="13">
         <v>2.1000000000000001E-2</v>
@@ -2812,27 +2799,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H18" s="13">
         <f>0.013/2</f>
@@ -2864,27 +2851,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H19" s="13">
         <f>0.013/2</f>
@@ -2919,27 +2906,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H20" s="13">
         <v>0</v>
@@ -2970,27 +2957,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H21" s="13">
         <v>0</v>
@@ -3024,27 +3011,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H22" s="13">
         <v>0</v>
@@ -3076,27 +3063,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H23" s="13">
         <v>0</v>
@@ -3128,27 +3115,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H24" s="13">
         <v>0</v>
@@ -3183,27 +3170,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H25" s="13">
         <v>0</v>
@@ -3241,27 +3228,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
@@ -3286,27 +3273,27 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H27" s="13">
         <v>2.9000000000000001E-2</v>
@@ -3346,27 +3333,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H28" s="13">
         <f>0.01/2</f>
@@ -3398,27 +3385,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H29" s="13">
         <f>0.01/2</f>
@@ -3453,27 +3440,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H30" s="13">
         <v>0</v>
@@ -3504,27 +3491,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H31" s="13">
         <v>0</v>
@@ -3558,27 +3545,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H32" s="13">
         <v>0</v>
@@ -3610,27 +3597,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H33" s="13">
         <v>0</v>
@@ -3662,27 +3649,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H34" s="13">
         <v>0</v>
@@ -3717,27 +3704,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H35" s="13">
         <v>0</v>
@@ -3775,27 +3762,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H36" s="13">
         <v>0</v>
@@ -3820,27 +3807,27 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H37" s="13">
         <v>2.1000000000000001E-2</v>
@@ -3880,27 +3867,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H38" s="13">
         <f>0.013/2</f>
@@ -3932,27 +3919,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H39" s="13">
         <f>0.013/2</f>
@@ -3987,27 +3974,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H40" s="13">
         <v>0</v>
@@ -4038,27 +4025,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
@@ -4092,27 +4079,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H42" s="13">
         <v>0</v>
@@ -4144,27 +4131,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H43" s="13">
         <v>0</v>
@@ -4196,27 +4183,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H44" s="13">
         <v>0</v>
@@ -4251,27 +4238,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H45" s="13">
         <v>0</v>
@@ -4309,27 +4296,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H46" s="13">
         <v>0</v>
@@ -4354,27 +4341,27 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H47" s="13">
         <v>3.6999999999999998E-2</v>
@@ -4414,27 +4401,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H48" s="13">
         <f>0.017/2</f>
@@ -4466,27 +4453,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H49" s="13">
         <f>0.017/2</f>
@@ -4521,27 +4508,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H50" s="13">
         <v>0</v>
@@ -4572,27 +4559,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H51" s="13">
         <v>0</v>
@@ -4626,27 +4613,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -4678,27 +4665,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H53" s="13">
         <v>0</v>
@@ -4730,27 +4717,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H54" s="13">
         <v>0</v>
@@ -4785,27 +4772,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H55" s="13">
         <v>0</v>
@@ -4843,27 +4830,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H56" s="13">
         <v>0</v>
@@ -4888,27 +4875,27 @@
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H57" s="13">
         <v>2.5000000000000001E-2</v>
@@ -4948,27 +4935,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H58" s="13">
         <v>0</v>
@@ -4999,27 +4986,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H59" s="13">
         <v>0</v>
@@ -5053,27 +5040,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H60" s="13">
         <v>0</v>
@@ -5104,27 +5091,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H61" s="13">
         <v>0</v>
@@ -5158,27 +5145,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H62" s="13">
         <v>0</v>
@@ -5210,27 +5197,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H63" s="13">
         <v>0</v>
@@ -5262,27 +5249,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H64" s="13">
         <v>0</v>
@@ -5317,27 +5304,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H65" s="13">
         <v>0</v>
@@ -5375,27 +5362,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H66" s="13">
         <v>0</v>
@@ -5420,27 +5407,27 @@
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H67" s="13">
         <v>1.2999999999999999E-2</v>
@@ -5480,27 +5467,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G68" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H68" s="13">
         <f>0.061/2</f>
@@ -5532,27 +5519,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G69" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H69" s="13">
         <f>0.061/2</f>
@@ -5587,27 +5574,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:22">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H70" s="13">
         <v>0</v>
@@ -5638,27 +5625,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:22">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H71" s="13">
         <v>0</v>
@@ -5692,27 +5679,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H72" s="13">
         <v>0</v>
@@ -5744,27 +5731,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:22">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B73" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>242</v>
-      </c>
       <c r="D73" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G73" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H73" s="13">
         <v>0</v>
@@ -5796,27 +5783,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:22">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D74" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G74" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H74" s="13">
         <v>0</v>
@@ -5851,27 +5838,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:22">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H75" s="13">
         <v>0</v>
@@ -5909,27 +5896,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G76" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H76" s="13">
         <v>0</v>
@@ -5954,27 +5941,27 @@
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H77" s="13">
         <v>4.0000000000000001E-3</v>
@@ -6014,27 +6001,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D78" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G78" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H78" s="13">
         <f>0.014/2</f>
@@ -6066,27 +6053,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H79" s="13">
         <f>0.014/2</f>
@@ -6121,27 +6108,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H80" s="13">
         <v>0</v>
@@ -6172,27 +6159,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D81" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H81" s="13">
         <v>0</v>
@@ -6226,27 +6213,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H82" s="13">
         <v>0</v>
@@ -6278,27 +6265,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H83" s="13">
         <v>0</v>
@@ -6330,27 +6317,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G84" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H84" s="13">
         <v>0</v>
@@ -6385,27 +6372,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C85" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G85" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H85" s="13">
         <v>0</v>
@@ -6443,27 +6430,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C86" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G86" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H86" s="13">
         <v>0</v>
@@ -6488,27 +6475,27 @@
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C87" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D87" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G87" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H87" s="13">
         <v>0</v>
@@ -6548,27 +6535,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B88" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>244</v>
-      </c>
       <c r="D88" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E88" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F88" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G88" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H88" s="13">
         <f>0.34*0.76</f>
@@ -6600,27 +6587,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C89" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E89" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G89" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H89" s="13">
         <f>0.34*0.24</f>
@@ -6655,27 +6642,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C90" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E90" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G90" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H90" s="13">
         <v>0</v>
@@ -6706,27 +6693,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C91" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E91" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H91" s="13">
         <v>0</v>
@@ -6760,27 +6747,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C92" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E92" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G92" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H92" s="13">
         <v>0</v>
@@ -6812,27 +6799,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C93" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G93" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H93" s="13">
         <v>0</v>
@@ -6864,27 +6851,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C94" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E94" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F94" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G94" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H94" s="13">
         <v>0</v>
@@ -6919,27 +6906,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C95" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E95" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G95" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H95" s="13">
         <v>0</v>
@@ -6977,27 +6964,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E96" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H96" s="13">
         <v>0</v>
@@ -7022,27 +7009,27 @@
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E97" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F97" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H97" s="13">
         <v>0</v>
@@ -7082,27 +7069,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C98" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D98" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H98" s="13">
         <f>0.16*0.76</f>
@@ -7134,27 +7121,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D99" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F99" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H99" s="13">
         <f>0.16*0.24</f>
@@ -7189,27 +7176,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F100" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H100" s="13">
         <v>0</v>
@@ -7240,27 +7227,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E101" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F101" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H101" s="13">
         <v>0</v>
@@ -7294,27 +7281,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E102" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F102" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H102" s="13">
         <v>0</v>
@@ -7346,27 +7333,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D103" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E103" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F103" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H103" s="13">
         <v>0</v>
@@ -7398,27 +7385,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D104" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E104" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F104" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H104" s="13">
         <v>0</v>
@@ -7453,27 +7440,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D105" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H105" s="13">
         <v>0</v>
@@ -7511,27 +7498,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D106" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H106" s="13">
         <v>0</v>
@@ -7556,27 +7543,27 @@
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D107" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G107" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H107" s="13">
         <v>0</v>
@@ -7616,27 +7603,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D108" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F108" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G108" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H108" s="13">
         <f>0.34*0.76</f>
@@ -7668,27 +7655,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G109" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H109" s="13">
         <f>0.34*0.24</f>
@@ -7723,27 +7710,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G110" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H110" s="13">
         <v>0</v>
@@ -7774,27 +7761,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C111" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G111" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H111" s="13">
         <v>0</v>
@@ -7828,27 +7815,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C112" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G112" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H112" s="13">
         <v>0</v>
@@ -7880,27 +7867,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D113" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G113" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H113" s="13">
         <v>0</v>
@@ -7932,27 +7919,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D114" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G114" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H114" s="13">
         <v>0</v>
@@ -7987,27 +7974,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G115" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H115" s="13">
         <v>0</v>
@@ -8045,27 +8032,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G116" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H116" s="13">
         <v>0</v>
@@ -8090,27 +8077,27 @@
       <c r="U116" s="8"/>
       <c r="V116" s="8"/>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B117" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="C117" s="24" t="s">
-        <v>247</v>
-      </c>
       <c r="D117" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F117" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G117" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H117" s="13">
         <v>0</v>
@@ -8150,27 +8137,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F118" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G118" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H118" s="13">
         <f>0.16*0.76</f>
@@ -8202,27 +8189,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E119" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H119" s="13">
         <f>0.16*0.24</f>
@@ -8257,27 +8244,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E120" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G120" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H120" s="13">
         <v>0</v>
@@ -8308,27 +8295,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E121" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G121" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H121" s="13">
         <v>0</v>
@@ -8362,27 +8349,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F122" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G122" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H122" s="13">
         <v>0</v>
@@ -8414,27 +8401,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E123" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G123" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H123" s="13">
         <v>0</v>
@@ -8466,27 +8453,27 @@
         <v>50.517780000000002</v>
       </c>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G124" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H124" s="13">
         <v>0</v>
@@ -8521,27 +8508,27 @@
         <v>32.727330000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>132</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E125" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G125" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H125" s="13">
         <v>0</v>
@@ -8587,14 +8574,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="8" customWidth="1"/>
     <col min="2" max="2" width="14" style="8" customWidth="1"/>
@@ -8608,192 +8595,192 @@
     <col min="11" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G2" s="31" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="36.75" customHeight="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H3" s="8">
         <v>2013</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="36.75" customHeight="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="36.75" customHeight="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H5" s="8">
         <v>2012</v>
       </c>
       <c r="I5" s="44" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="36.75" customHeight="1">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H6" s="8">
         <v>2012</v>
       </c>
       <c r="I6" s="44" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="36.75" customHeight="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H7" s="8">
         <v>2014</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="36.75" customHeight="1">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F8" s="8">
         <v>67</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H8" s="8">
         <v>2014</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="36.75" customHeight="1">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H9" s="8">
         <v>2014</v>
       </c>
       <c r="I9" s="44" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="36.75" customHeight="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="44" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="36.75" customHeight="1">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F11" s="8">
         <v>92</v>
@@ -8802,82 +8789,82 @@
         <v>2017</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="36.75" customHeight="1">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="I12" s="44" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="36.75" customHeight="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H13" s="8">
         <v>2014</v>
       </c>
       <c r="I13" s="44" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="36.75" customHeight="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="36.75" customHeight="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="36.75" customHeight="1">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="36.75" customHeight="1">
+    <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F17" s="8">
         <v>68</v>
@@ -8886,64 +8873,64 @@
         <v>2013</v>
       </c>
       <c r="I17" s="44" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="36.75" customHeight="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H18" s="8">
         <v>2012</v>
       </c>
       <c r="I18" s="44" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="36.75" customHeight="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="H19" s="8">
         <v>2013</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="J19" s="43" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="21" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="22" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="23" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="24" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="25" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="26" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="27" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="28" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="29" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="30" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="31" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="32" spans="2:10" ht="42.75" customHeight="1"/>
-    <row r="33" ht="42.75" customHeight="1"/>
-    <row r="34" ht="42.75" customHeight="1"/>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="B2:J2"/>
   <sortState ref="B3:J19">
@@ -8970,7 +8957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B2:V39"/>
   <sheetViews>
@@ -8978,7 +8965,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="5" customWidth="1"/>
     <col min="2" max="9" width="9.85546875" style="5" customWidth="1"/>
@@ -8988,7 +8975,7 @@
     <col min="13" max="16384" width="6.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1">
+    <row r="2" spans="2:22" s="8" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>135</v>
       </c>
@@ -9014,7 +9001,7 @@
         <v>35</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="11"/>
@@ -9022,16 +9009,16 @@
         <v>132</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>133</v>
@@ -9040,15 +9027,15 @@
         <v>134</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C3" s="5">
         <v>10000</v>
@@ -9072,7 +9059,7 @@
         <v>4800</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M3" s="5">
         <v>1</v>
@@ -9081,9 +9068,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="2:22">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="5">
         <v>10000</v>
@@ -9107,7 +9094,7 @@
         <v>4000</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M4" s="5">
         <v>1</v>
@@ -9116,9 +9103,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="2:22">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5">
         <v>10000</v>
@@ -9142,7 +9129,7 @@
         <v>1000</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M5" s="5">
         <v>1</v>
@@ -9151,9 +9138,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C6" s="5">
         <v>10000</v>
@@ -9177,7 +9164,7 @@
         <v>5000</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M6" s="5">
         <v>1</v>
@@ -9186,7 +9173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>136</v>
       </c>
@@ -9221,7 +9208,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="2:22">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>137</v>
       </c>
@@ -9256,9 +9243,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="2:22">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5">
         <v>10000</v>
@@ -9282,7 +9269,7 @@
         <v>7500</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M9" s="5">
         <v>1</v>
@@ -9291,9 +9278,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="2:22">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5">
         <v>10000</v>
@@ -9317,7 +9304,7 @@
         <v>4700</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M10" s="5">
         <v>1</v>
@@ -9326,9 +9313,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="2:22">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C11" s="5">
         <v>10000</v>
@@ -9352,7 +9339,7 @@
         <v>4300</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O11" s="5">
         <v>1</v>
@@ -9361,9 +9348,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C12" s="5">
         <v>10000</v>
@@ -9387,7 +9374,7 @@
         <v>2400</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q12" s="5">
         <v>1</v>
@@ -9396,7 +9383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>138</v>
       </c>
@@ -9431,9 +9418,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C14" s="5">
         <v>10000</v>
@@ -9457,7 +9444,7 @@
         <v>1200</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="T14" s="5">
         <v>1</v>
@@ -9466,9 +9453,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="2:22">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C15" s="5">
         <v>10000</v>
@@ -9492,7 +9479,7 @@
         <v>1700</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="U15" s="5">
         <v>1</v>
@@ -9501,9 +9488,9 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="2:22">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C16" s="5">
         <v>10000</v>
@@ -9527,7 +9514,7 @@
         <v>3700</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O16" s="5">
         <v>1</v>
@@ -9536,46 +9523,46 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="10:10">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="10:10">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="10:10">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="10:10">
+    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="10:10">
+    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="10:10">
+    <row r="31" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="10:10">
+    <row r="32" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="10:10">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="10:10">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="10:10">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="10:10">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="10:10">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="10:10">
+    <row r="39" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J39" s="5"/>
     </row>
   </sheetData>
@@ -9585,7 +9572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:V17"/>
   <sheetViews>
@@ -9594,7 +9581,7 @@
       <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
@@ -9608,7 +9595,7 @@
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="1" spans="1:22" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -9617,7 +9604,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>23</v>
@@ -9668,24 +9655,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="2" spans="1:22" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>30</v>
@@ -9703,99 +9690,99 @@
         <v>33</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="V2" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="3" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -9860,10 +9847,10 @@
         <v>41</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -9928,7 +9915,7 @@
         <v>5857.4674195989719</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -9993,7 +9980,7 @@
         <v>14928.420768422735</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -10058,7 +10045,7 @@
         <v>21846.469417204</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -10123,12 +10110,12 @@
         <v>13488.991968036587</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>130</v>
@@ -10188,12 +10175,12 @@
         <v>13488.991968036587</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>130</v>
@@ -10253,12 +10240,12 @@
         <v>1248.1130423920638</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>130</v>
@@ -10318,7 +10305,7 @@
         <v>171.05426410986715</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
@@ -10383,7 +10370,7 @@
         <v>6894.2927803410721</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
@@ -10445,7 +10432,7 @@
         <v>55282.481202403666</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -10507,7 +10494,7 @@
         <v>11931.470763108704</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -10569,7 +10556,7 @@
         <v>63959.325331165601</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="20"/>
     </row>
   </sheetData>
@@ -10579,15 +10566,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
@@ -10601,7 +10588,7 @@
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -10646,18 +10633,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="45.75" customHeight="1">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>30</v>
@@ -10672,7 +10659,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>55</v>
@@ -10687,57 +10674,57 @@
         <v>151</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -10778,13 +10765,13 @@
         <v>150</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -10832,28 +10819,66 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>300000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>65000</v>
+      </c>
+      <c r="H7" s="5">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="J7" s="5">
+        <v>100000</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
     </row>
   </sheetData>
@@ -10863,7 +10888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -10871,7 +10896,7 @@
       <selection activeCell="A7" sqref="A7:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="16" customWidth="1"/>
@@ -10884,7 +10909,7 @@
     <col min="19" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>24</v>
       </c>
@@ -10926,18 +10951,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
+    <row r="2" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>30</v>
@@ -10952,7 +10977,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>55</v>
@@ -10964,13 +10989,13 @@
         <v>58</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="8" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>143</v>
       </c>
@@ -10988,48 +11013,48 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -11067,13 +11092,13 @@
         <v>59</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>132</v>
       </c>
@@ -11123,7 +11148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:L46"/>
   <sheetViews>
@@ -11131,7 +11156,7 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
@@ -11147,7 +11172,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -11180,15 +11205,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>70</v>
@@ -11200,57 +11225,57 @@
         <v>74</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -11288,7 +11313,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -11323,7 +11348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -11358,7 +11383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -11393,7 +11418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -11431,7 +11456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -11469,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>132</v>
       </c>
@@ -11507,7 +11532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -11545,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
@@ -11583,103 +11608,103 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="7"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="7"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
     </row>
   </sheetData>
@@ -11689,7 +11714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle7"/>
   <dimension ref="A1:J69"/>
   <sheetViews>
@@ -11697,7 +11722,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
@@ -11720,7 +11745,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -11750,12 +11775,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>82</v>
@@ -11782,36 +11807,36 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -11843,7 +11868,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -11875,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
@@ -11907,7 +11932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -11939,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -11971,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
@@ -12003,7 +12028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>132</v>
       </c>
@@ -12035,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>132</v>
       </c>
@@ -12067,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>132</v>
       </c>
@@ -12099,7 +12124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>132</v>
       </c>
@@ -12131,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>132</v>
       </c>
@@ -12163,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>132</v>
       </c>
@@ -12195,7 +12220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>132</v>
       </c>
@@ -12227,7 +12252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>132</v>
       </c>
@@ -12259,7 +12284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>132</v>
       </c>
@@ -12291,7 +12316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
@@ -12323,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>132</v>
       </c>
@@ -12355,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>132</v>
       </c>
@@ -12387,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>132</v>
       </c>
@@ -12419,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>132</v>
       </c>
@@ -12451,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>132</v>
       </c>
@@ -12483,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
@@ -12515,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -12547,7 +12572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>132</v>
       </c>
@@ -12579,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>132</v>
       </c>
@@ -12611,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>132</v>
       </c>
@@ -12643,7 +12668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -12675,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>132</v>
       </c>
@@ -12707,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
@@ -12739,52 +12764,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="7"/>
     </row>
   </sheetData>
@@ -12794,15 +12819,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle8"/>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -12818,7 +12843,7 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -12839,12 +12864,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>56</v>
@@ -12853,7 +12878,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="H2" s="8" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>56</v>
@@ -12865,32 +12890,32 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="I4" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
@@ -12904,10 +12929,10 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>57</v>
@@ -12919,7 +12944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
@@ -12948,165 +12973,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="I7" s="35">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="I9" s="35">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="I10" s="35">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="I11" s="35">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="I12" s="35">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -13114,7 +13029,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -13122,7 +13037,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -13130,7 +13045,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -13138,7 +13053,7 @@
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -13146,7 +13061,7 @@
       <c r="H17" s="34"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -13154,7 +13069,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="7"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -13162,7 +13077,7 @@
       <c r="H19" s="34"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="7"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -13170,314 +13085,314 @@
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="H21" s="34"/>
       <c r="I21" s="35"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="H22" s="34"/>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="H23" s="34"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="H24" s="34"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="H25" s="34"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="7"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="4:6">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="4:6">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="4:6">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="4:6">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="4:6">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="4:6">
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="4:6">
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="4:6">
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="4:6">
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="4:6">
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="4:6">
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -13488,7 +13403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:W12"/>
   <sheetViews>
@@ -13497,7 +13412,7 @@
       <selection pane="topRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11" style="1" customWidth="1"/>
@@ -13520,24 +13435,24 @@
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>47</v>
@@ -13546,115 +13461,115 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1">
+    <row r="2" spans="1:23" s="8" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -13667,21 +13582,21 @@
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="F6" s="20"/>
       <c r="K6" s="5">
@@ -13691,21 +13606,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F7" s="20"/>
       <c r="K7" s="5">
@@ -13715,21 +13630,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F8" s="20">
         <v>1.9115312474500898</v>
@@ -13750,21 +13665,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F9" s="20">
         <v>3.2418772096896795</v>
@@ -13785,21 +13700,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F10" s="20">
         <v>1.9115312474500898</v>
@@ -13820,21 +13735,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F11" s="20">
         <v>3.2418772096896795</v>
@@ -13855,7 +13770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="F12" s="20"/>
     </row>
   </sheetData>
